--- a/data/technology_patents/pct_world_relative.xlsx
+++ b/data/technology_patents/pct_world_relative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA793B-F7C2-624D-8612-779C2F030671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5622B7-3BE8-944E-AE5C-36CF7F9A9346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="2760" windowWidth="26840" windowHeight="15940" xr2:uid="{ECA13035-4197-5044-9180-1C920ADE2EA0}"/>
+    <workbookView xWindow="9000" yWindow="2760" windowWidth="26840" windowHeight="15940" xr2:uid="{ECA13035-4197-5044-9180-1C920ADE2EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>World_Env</t>
-  </si>
-  <si>
     <t>Relative</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Value_env</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5EFE30-9DE9-CC46-BBD1-D2BA3473E842}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,18 +420,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1999</v>
@@ -443,13 +443,13 @@
         <v>5084</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E20" si="0">D2/C2</f>
         <v>5.8443499252787676E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -461,13 +461,13 @@
         <v>5908</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
+        <f t="shared" si="0"/>
         <v>5.7499343059299844E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2001</v>
@@ -479,13 +479,13 @@
         <v>6364</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="0"/>
         <v>6.0775063506312434E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2002</v>
@@ -497,13 +497,13 @@
         <v>6690</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>6.1609584941107132E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2003</v>
@@ -515,13 +515,13 @@
         <v>7299</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>6.1543520603040497E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2004</v>
@@ -533,13 +533,13 @@
         <v>8594</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>6.4873107175747693E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2005</v>
@@ -551,13 +551,13 @@
         <v>9951</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>6.8672578585970118E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -569,13 +569,13 @@
         <v>11648</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>7.5432597658273759E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>2007</v>
@@ -587,13 +587,13 @@
         <v>13635</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
+        <f t="shared" si="0"/>
         <v>8.5276311510269431E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2008</v>
@@ -605,13 +605,13 @@
         <v>14319</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
+        <f t="shared" si="0"/>
         <v>9.5291017262720781E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2009</v>
@@ -623,13 +623,13 @@
         <v>16863</v>
       </c>
       <c r="E12">
-        <f>D12/C12</f>
+        <f t="shared" si="0"/>
         <v>0.10766549187863929</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -641,13 +641,13 @@
         <v>19917</v>
       </c>
       <c r="E13">
-        <f>D13/C13</f>
+        <f t="shared" si="0"/>
         <v>0.11566806627524087</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>2011</v>
@@ -659,13 +659,13 @@
         <v>21660</v>
       </c>
       <c r="E14">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>0.1149766967821388</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>2012</v>
@@ -677,13 +677,13 @@
         <v>21262</v>
       </c>
       <c r="E15">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>0.10828732658341313</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>2013</v>
@@ -695,13 +695,13 @@
         <v>20437</v>
       </c>
       <c r="E16">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>9.8754753632572592E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>2014</v>
@@ -713,13 +713,13 @@
         <v>18507</v>
       </c>
       <c r="E17">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>8.9058597641080428E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -731,13 +731,13 @@
         <v>17449</v>
       </c>
       <c r="E18">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>7.9957292568815327E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -749,13 +749,13 @@
         <v>17317</v>
       </c>
       <c r="E19">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>7.4480759388050904E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -767,7 +767,7 @@
         <v>10138</v>
       </c>
       <c r="E20">
-        <f>D20/C20</f>
+        <f t="shared" si="0"/>
         <v>4.1599133385581868E-2</v>
       </c>
     </row>
